--- a/test/Performance Data/MGPU/Benchmark_Excel/teslaK20c/teslaK20c_benchmarkBulkInsert_aleacubase_vs_moderngpu_Int.xlsx
+++ b/test/Performance Data/MGPU/Benchmark_Excel/teslaK20c/teslaK20c_benchmarkBulkInsert_aleacubase_vs_moderngpu_Int.xlsx
@@ -21,33 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
-    <t>Throughput</t>
-  </si>
-  <si>
-    <t>Iterations</t>
-  </si>
-  <si>
-    <t>Elements</t>
-  </si>
-  <si>
-    <t>Alea.cuBase</t>
-  </si>
-  <si>
-    <t>MGPU</t>
-  </si>
-  <si>
-    <t>Bandwidth</t>
-  </si>
-  <si>
-    <t>kernelBulkInsert</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>kernelMergePartition</t>
-  </si>
-  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -67,6 +40,33 @@
   </si>
   <si>
     <t>Tesla K20c</t>
+  </si>
+  <si>
+    <t>MGPU</t>
+  </si>
+  <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Alea.cuBase</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>kernelBulkInsert</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>kernelMergePartition</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput M/s</a:t>
+              <a:t>Throughput (M/s)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -818,34 +818,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>25.285589000000002</c:v>
+                  <c:v>34.174278000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137.818815</c:v>
+                  <c:v>135.065954</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>292.65750100000002</c:v>
+                  <c:v>274.57621799999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>496.48104999999998</c:v>
+                  <c:v>485.20799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1075.49398</c:v>
+                  <c:v>1061.425189</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2127.9302120000002</c:v>
+                  <c:v>2124.6218309999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4168.8324339999999</c:v>
+                  <c:v>4177.1269849999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9259.3482170000007</c:v>
+                  <c:v>9263.7714599999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9094.3909409999997</c:v>
+                  <c:v>9111.5691740000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9011.5105220000005</c:v>
+                  <c:v>9008.8967250000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,11 +1014,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1535355104"/>
-        <c:axId val="-1535354560"/>
+        <c:axId val="-1393991792"/>
+        <c:axId val="-1393989616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1535355104"/>
+        <c:axId val="-1393991792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,12 +1072,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1535354560"/>
+        <c:crossAx val="-1393989616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1535354560"/>
+        <c:axId val="-1393989616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1535355104"/>
+        <c:crossAx val="-1393991792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1267,7 +1267,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> GB/s</a:t>
+              <a:t> (GB/s)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1435,34 +1435,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.25285600000000003</c:v>
+                  <c:v>0.34174300000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.378188</c:v>
+                  <c:v>1.35066</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9265750000000001</c:v>
+                  <c:v>2.745762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9648099999999999</c:v>
+                  <c:v>4.8520799999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.75494</c:v>
+                  <c:v>10.614252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.279302000000001</c:v>
+                  <c:v>21.246217999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.688324000000001</c:v>
+                  <c:v>41.771270000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92.593481999999995</c:v>
+                  <c:v>92.637715</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.943909000000005</c:v>
+                  <c:v>91.115691999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.115105</c:v>
+                  <c:v>90.088966999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,11 +1631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1527383024"/>
-        <c:axId val="-1527382480"/>
+        <c:axId val="-1395776816"/>
+        <c:axId val="-51883408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1527383024"/>
+        <c:axId val="-1395776816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,12 +1689,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1527382480"/>
+        <c:crossAx val="-51883408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1527382480"/>
+        <c:axId val="-51883408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,7 +1748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1527383024"/>
+        <c:crossAx val="-1395776816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2928,15 +2928,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2958,15 +2958,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3253,57 +3253,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3314,7 +3314,7 @@
         <v>10000</v>
       </c>
       <c r="C6">
-        <v>25.285589000000002</v>
+        <v>34.174278000000001</v>
       </c>
       <c r="D6">
         <v>486.572</v>
@@ -3328,7 +3328,7 @@
         <v>50000</v>
       </c>
       <c r="C7">
-        <v>137.818815</v>
+        <v>135.065954</v>
       </c>
       <c r="D7">
         <v>1659.098</v>
@@ -3342,7 +3342,7 @@
         <v>100000</v>
       </c>
       <c r="C8">
-        <v>292.65750100000002</v>
+        <v>274.57621799999998</v>
       </c>
       <c r="D8">
         <v>2772.4360000000001</v>
@@ -3356,7 +3356,7 @@
         <v>200000</v>
       </c>
       <c r="C9">
-        <v>496.48104999999998</v>
+        <v>485.20799</v>
       </c>
       <c r="D9">
         <v>4029.393</v>
@@ -3370,7 +3370,7 @@
         <v>500000</v>
       </c>
       <c r="C10">
-        <v>1075.49398</v>
+        <v>1061.425189</v>
       </c>
       <c r="D10">
         <v>6707.6670000000004</v>
@@ -3384,7 +3384,7 @@
         <v>1000000</v>
       </c>
       <c r="C11">
-        <v>2127.9302120000002</v>
+        <v>2124.6218309999999</v>
       </c>
       <c r="D11">
         <v>8509.6190000000006</v>
@@ -3398,7 +3398,7 @@
         <v>2000000</v>
       </c>
       <c r="C12">
-        <v>4168.8324339999999</v>
+        <v>4177.1269849999999</v>
       </c>
       <c r="D12">
         <v>9593.2720000000008</v>
@@ -3412,7 +3412,7 @@
         <v>5000000</v>
       </c>
       <c r="C13">
-        <v>9259.3482170000007</v>
+        <v>9263.7714599999999</v>
       </c>
       <c r="D13">
         <v>10323.136</v>
@@ -3426,7 +3426,7 @@
         <v>10000000</v>
       </c>
       <c r="C14">
-        <v>9094.3909409999997</v>
+        <v>9111.5691740000002</v>
       </c>
       <c r="D14">
         <v>10300.645</v>
@@ -3440,7 +3440,7 @@
         <v>20000000</v>
       </c>
       <c r="C15">
-        <v>9011.5105220000005</v>
+        <v>9008.8967250000005</v>
       </c>
       <c r="D15">
         <v>10188.207</v>
@@ -3448,21 +3448,21 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3473,7 +3473,7 @@
         <v>10000</v>
       </c>
       <c r="C19">
-        <v>0.25285600000000003</v>
+        <v>0.34174300000000002</v>
       </c>
       <c r="D19">
         <v>4.8659999999999997</v>
@@ -3487,7 +3487,7 @@
         <v>50000</v>
       </c>
       <c r="C20">
-        <v>1.378188</v>
+        <v>1.35066</v>
       </c>
       <c r="D20">
         <v>16.591000000000001</v>
@@ -3501,7 +3501,7 @@
         <v>100000</v>
       </c>
       <c r="C21">
-        <v>2.9265750000000001</v>
+        <v>2.745762</v>
       </c>
       <c r="D21">
         <v>27.724</v>
@@ -3515,7 +3515,7 @@
         <v>200000</v>
       </c>
       <c r="C22">
-        <v>4.9648099999999999</v>
+        <v>4.8520799999999999</v>
       </c>
       <c r="D22">
         <v>40.293999999999997</v>
@@ -3529,7 +3529,7 @@
         <v>500000</v>
       </c>
       <c r="C23">
-        <v>10.75494</v>
+        <v>10.614252</v>
       </c>
       <c r="D23">
         <v>67.076999999999998</v>
@@ -3543,7 +3543,7 @@
         <v>1000000</v>
       </c>
       <c r="C24">
-        <v>21.279302000000001</v>
+        <v>21.246217999999999</v>
       </c>
       <c r="D24">
         <v>85.096000000000004</v>
@@ -3557,7 +3557,7 @@
         <v>2000000</v>
       </c>
       <c r="C25">
-        <v>41.688324000000001</v>
+        <v>41.771270000000001</v>
       </c>
       <c r="D25">
         <v>95.933000000000007</v>
@@ -3571,7 +3571,7 @@
         <v>5000000</v>
       </c>
       <c r="C26">
-        <v>92.593481999999995</v>
+        <v>92.637715</v>
       </c>
       <c r="D26">
         <v>103.23099999999999</v>
@@ -3585,7 +3585,7 @@
         <v>10000000</v>
       </c>
       <c r="C27">
-        <v>90.943909000000005</v>
+        <v>91.115691999999996</v>
       </c>
       <c r="D27">
         <v>103.006</v>
@@ -3599,7 +3599,7 @@
         <v>20000000</v>
       </c>
       <c r="C28">
-        <v>90.115105</v>
+        <v>90.088966999999997</v>
       </c>
       <c r="D28">
         <v>101.88200000000001</v>
@@ -3607,21 +3607,21 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3766,21 +3766,21 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
